--- a/CompanyExcel.xlsx
+++ b/CompanyExcel.xlsx
@@ -11,15 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>Description</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>NAME COMPANY</t>
+  </si>
+  <si>
+    <t>NAME CATEGORY</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
   </si>
   <si>
     <t>MAS</t>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>prueba4</t>
+  </si>
+  <si>
+    <t>COCA</t>
   </si>
 </sst>
 </file>
@@ -414,11 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="1" max="3" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -452,6 +454,17 @@
       </c>
       <c r="C3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
